--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">Сделаем </t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Давай</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,6 +376,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t xml:space="preserve">Сделаем </t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Давай</t>
+  </si>
+  <si>
+    <t>Что то ещё</t>
+  </si>
+  <si>
+    <t>Опять шаги</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +396,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">Сделаем </t>
   </si>
@@ -37,12 +37,21 @@
   </si>
   <si>
     <t>Опять шаги</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +419,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
